--- a/data/en/ParishCouncils.xlsx
+++ b/data/en/ParishCouncils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F4F17-7A13-4321-8A40-83A7E28B6762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE330FEF-4FFC-45A5-AE51-1BA16C41D294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Parish_Council" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Ajuda</t>
   </si>
@@ -185,6 +185,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -554,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +646,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +703,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2781299" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1108,42 +1117,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1">
+    <row r="2" spans="1:13" s="23" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" ht="12.75">
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="13.8">
       <c r="A3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1156,10 +1168,10 @@
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="B7" s="28">
         <v>2017</v>
       </c>
@@ -1172,8 +1184,14 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="26" t="s">
         <v>27</v>
       </c>
@@ -1201,8 +1219,20 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25">
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.2">
       <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -1228,8 +1258,20 @@
       <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1257,8 +1299,18 @@
       <c r="I10" s="14">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="15">
+        <v>941.149</v>
+      </c>
+      <c r="K10" s="34">
+        <v>687.43499999999995</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9469</v>
+      </c>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -1286,8 +1338,18 @@
       <c r="I11" s="14">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="15">
+        <v>1130.578</v>
+      </c>
+      <c r="K11" s="34">
+        <v>622.13599999999997</v>
+      </c>
+      <c r="L11" s="5">
+        <v>8576</v>
+      </c>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1377,18 @@
       <c r="I12" s="14">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="15">
+        <v>3452.0630000000001</v>
+      </c>
+      <c r="K12" s="34">
+        <v>1744.701</v>
+      </c>
+      <c r="L12" s="4">
+        <v>22197</v>
+      </c>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1416,18 @@
       <c r="I13" s="14">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="15">
+        <v>1596.7660000000001</v>
+      </c>
+      <c r="K13" s="34">
+        <v>1009.698</v>
+      </c>
+      <c r="L13" s="5">
+        <v>12791</v>
+      </c>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1373,8 +1455,18 @@
       <c r="I14" s="14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="15">
+        <v>3462.0320000000002</v>
+      </c>
+      <c r="K14" s="34">
+        <v>1925.18</v>
+      </c>
+      <c r="L14" s="5">
+        <v>26036</v>
+      </c>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1402,8 +1494,18 @@
       <c r="I15" s="14">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="15">
+        <v>3948.277</v>
+      </c>
+      <c r="K15" s="34">
+        <v>1246.742</v>
+      </c>
+      <c r="L15" s="5">
+        <v>18825</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1431,8 +1533,18 @@
       <c r="I16" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="15">
+        <v>676.202</v>
+      </c>
+      <c r="K16" s="34">
+        <v>512.19899999999996</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6949</v>
+      </c>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -1460,8 +1572,18 @@
       <c r="I17" s="14">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="15">
+        <v>2400.42</v>
+      </c>
+      <c r="K17" s="34">
+        <v>995.10599999999999</v>
+      </c>
+      <c r="L17" s="4">
+        <v>10376</v>
+      </c>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
@@ -1489,8 +1611,18 @@
       <c r="I18" s="14">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="15">
+        <v>2631.8989999999999</v>
+      </c>
+      <c r="K18" s="34">
+        <v>1726.732</v>
+      </c>
+      <c r="L18" s="4">
+        <v>23851</v>
+      </c>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1518,8 +1650,18 @@
       <c r="I19" s="14">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="15">
+        <v>1456.0119999999999</v>
+      </c>
+      <c r="K19" s="34">
+        <v>965.47699999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>13394</v>
+      </c>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1547,8 +1689,18 @@
       <c r="I20" s="14">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="15">
+        <v>1487.4659999999999</v>
+      </c>
+      <c r="K20" s="34">
+        <v>780.70600000000002</v>
+      </c>
+      <c r="L20" s="4">
+        <v>10534</v>
+      </c>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
@@ -1576,8 +1728,18 @@
       <c r="I21" s="14">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="15">
+        <v>1587.4469999999999</v>
+      </c>
+      <c r="K21" s="34">
+        <v>767.822</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9232</v>
+      </c>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -1605,8 +1767,18 @@
       <c r="I22" s="14">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="15">
+        <v>1905.059</v>
+      </c>
+      <c r="K22" s="34">
+        <v>1131.7139999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>15036</v>
+      </c>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
@@ -1634,8 +1806,18 @@
       <c r="I23" s="14">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="15">
+        <v>3447.8049999999998</v>
+      </c>
+      <c r="K23" s="34">
+        <v>2333.7919999999999</v>
+      </c>
+      <c r="L23" s="4">
+        <v>26179</v>
+      </c>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1663,8 +1845,18 @@
       <c r="I24" s="14">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="15">
+        <v>2280.3040000000001</v>
+      </c>
+      <c r="K24" s="34">
+        <v>1425.923</v>
+      </c>
+      <c r="L24" s="4">
+        <v>17127</v>
+      </c>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1692,8 +1884,18 @@
       <c r="I25" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="15">
+        <v>1538.9159999999999</v>
+      </c>
+      <c r="K25" s="34">
+        <v>622.56200000000001</v>
+      </c>
+      <c r="L25" s="4">
+        <v>11686</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1721,8 +1923,18 @@
       <c r="I26" s="14">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="15">
+        <v>2770.232</v>
+      </c>
+      <c r="K26" s="34">
+        <v>1418.502</v>
+      </c>
+      <c r="L26" s="4">
+        <v>17500</v>
+      </c>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -1750,8 +1962,18 @@
       <c r="I27" s="14">
         <v>1129</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="15">
+        <v>2314.9740000000002</v>
+      </c>
+      <c r="K27" s="34">
+        <v>1118.279</v>
+      </c>
+      <c r="L27" s="4">
+        <v>12754</v>
+      </c>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
@@ -1779,8 +2001,18 @@
       <c r="I28" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="15">
+        <v>1650.056</v>
+      </c>
+      <c r="K28" s="34">
+        <v>1316.4469999999999</v>
+      </c>
+      <c r="L28" s="4">
+        <v>17509</v>
+      </c>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="9" t="s">
         <v>19</v>
       </c>
@@ -1808,8 +2040,18 @@
       <c r="I29" s="14">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="15">
+        <v>1151.5029999999999</v>
+      </c>
+      <c r="K29" s="34">
+        <v>899.92399999999998</v>
+      </c>
+      <c r="L29" s="4">
+        <v>10584</v>
+      </c>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
         <v>20</v>
       </c>
@@ -1837,8 +2079,18 @@
       <c r="I30" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="15">
+        <v>2360.9279999999999</v>
+      </c>
+      <c r="K30" s="34">
+        <v>667.75800000000004</v>
+      </c>
+      <c r="L30" s="4">
+        <v>13826</v>
+      </c>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="9" t="s">
         <v>21</v>
       </c>
@@ -1866,8 +2118,18 @@
       <c r="I31" s="14">
         <v>165</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="15">
+        <v>2550.4589999999998</v>
+      </c>
+      <c r="K31" s="34">
+        <v>743.053</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12423</v>
+      </c>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="9" t="s">
         <v>22</v>
       </c>
@@ -1895,8 +2157,18 @@
       <c r="I32" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J32" s="15">
+        <v>2760.0569999999998</v>
+      </c>
+      <c r="K32" s="34">
+        <v>1725.8009999999999</v>
+      </c>
+      <c r="L32" s="4">
+        <v>21139</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="9" t="s">
         <v>23</v>
       </c>
@@ -1924,13 +2196,24 @@
       <c r="I33" s="18">
         <v>35</v>
       </c>
+      <c r="J33" s="16">
+        <v>1079.194</v>
+      </c>
+      <c r="K33" s="35">
+        <v>714.47400000000005</v>
+      </c>
+      <c r="L33" s="17">
+        <v>10656</v>
+      </c>
+      <c r="M33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
